--- a/References/Venues.xlsx
+++ b/References/Venues.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/Other/Exploratory search/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/References/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B88E69E-56E4-4845-A58C-54B003C143FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42112FCC-D9F9-7D4A-8804-0145841F960C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="1960" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{7011BBFD-0144-574F-A670-9349D6AC3912}"/>
+    <workbookView xWindow="38400" yWindow="2460" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{7011BBFD-0144-574F-A670-9349D6AC3912}"/>
   </bookViews>
   <sheets>
     <sheet name="Initial" sheetId="1" r:id="rId1"/>
@@ -17175,7 +17175,7 @@
   <dimension ref="A1:AD793"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AI10" sqref="AI10"/>
+      <selection activeCell="AA27" sqref="AA27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
